--- a/Tables/aq_hmf_metrics_all_30_95.xlsx
+++ b/Tables/aq_hmf_metrics_all_30_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>dec_hmf</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -542,1597 +547,5172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04479989699761772</v>
+        <v>0.7754456144886912</v>
       </c>
       <c r="C2" t="n">
-        <v>29.10517820322236</v>
+        <v>78.14285714285714</v>
       </c>
       <c r="D2" t="n">
-        <v>9.050949131638149</v>
+        <v>72.61904761904762</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01844801751886407</v>
+        <v>0.7730666110289665</v>
       </c>
       <c r="F2" t="n">
-        <v>68.76574626865673</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>5.347326702471895</v>
+        <v>15.41379310344828</v>
       </c>
       <c r="H2" t="n">
-        <v>199.2706064585429</v>
+        <v>303.8275862068966</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02918336928867651</v>
+        <v>0.8927015921609588</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02114223923183746</v>
+        <v>0.3530741859142495</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01568600722729245</v>
+        <v>0.5503327033712256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01102962136822844</v>
+        <v>0.2311964959685875</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01188566694206175</v>
+        <v>0.1796031108494784</v>
       </c>
       <c r="N2" t="n">
-        <v>0.008375252346416284</v>
+        <v>0.2049985650194496</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004074473366867846</v>
+        <v>0.1213746128489664</v>
       </c>
       <c r="P2" t="n">
-        <v>0.004662856824642208</v>
+        <v>0.1473083136391104</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002298577253789162</v>
+        <v>0.0449435927844288</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00438909104865984</v>
+        <v>0.1992406718001511</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00417764549203755</v>
+        <v>0.1798269725119594</v>
       </c>
       <c r="T2" t="n">
-        <v>0.005675252619226107</v>
+        <v>0.175664124220032</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01627831627066412</v>
+        <v>0.04479989699761772</v>
       </c>
       <c r="C3" t="n">
-        <v>38.76512820512821</v>
+        <v>29.10517820322236</v>
       </c>
       <c r="D3" t="n">
-        <v>11.78728388895056</v>
+        <v>9.050949131638149</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005596633715041933</v>
+        <v>0.01844801751886407</v>
       </c>
       <c r="F3" t="n">
-        <v>51.977</v>
+        <v>68.76574626865673</v>
       </c>
       <c r="G3" t="n">
-        <v>4.377549857549857</v>
+        <v>5.347326702471895</v>
       </c>
       <c r="H3" t="n">
-        <v>184.4566381766381</v>
+        <v>199.2706064585429</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00236789367667293</v>
+        <v>0.02918336928867651</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001630960656389982</v>
+        <v>0.02114223923183746</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002424115982725544</v>
+        <v>0.01568600722729245</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004591553569643198</v>
+        <v>0.01102962136822844</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002287805026166765</v>
+        <v>0.01188566694206175</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002990999769667068</v>
+        <v>0.008375252346416284</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005598587902903997</v>
+        <v>0.004074473366867846</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008354826903498315</v>
+        <v>0.004662856824642208</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.006145873887838571</v>
+        <v>0.002298577253789162</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00827566683235143</v>
+        <v>0.00438909104865984</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004967904460741412</v>
+        <v>0.00417764549203755</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004008789060831013</v>
+        <v>0.005675252619226107</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0720484654131377</v>
+        <v>2.797251374534397e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>21.3465257400955</v>
+        <v>6.62962962962963</v>
       </c>
       <c r="D4" t="n">
-        <v>4.3901220083672</v>
+        <v>1.200149010035313</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01808723808122292</v>
+        <v>3.815816437263997e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>87.74944615384615</v>
+        <v>20.69</v>
       </c>
       <c r="G4" t="n">
-        <v>5.3851411663003</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="H4" t="n">
-        <v>132.6113315482889</v>
+        <v>60.39130434782609</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0374761910000117</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03505389116338994</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02403051339500897</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009342665285811671</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003222191787730262</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0008797724692154646</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8.523922436282398e-05</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0001405559156899834</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0001969052554728643</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001602002358932906</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.006973692914663219</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01646810363273798</v>
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1518688797013863</v>
+        <v>0.03225565200162854</v>
       </c>
       <c r="C5" t="n">
-        <v>21.66533010263521</v>
+        <v>57.33333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>6.156511629062567</v>
+        <v>17.51175213675214</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06072858080034404</v>
+        <v>0.01405086110472437</v>
       </c>
       <c r="F5" t="n">
-        <v>86.44702985074628</v>
+        <v>90</v>
       </c>
       <c r="G5" t="n">
-        <v>4.557045140743554</v>
+        <v>5.962962962962963</v>
       </c>
       <c r="H5" t="n">
-        <v>210.2242731969714</v>
+        <v>243.2307692307692</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001981351426589983</v>
+        <v>0.003677447703553358</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01315971403641652</v>
+        <v>0.002815763796167613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05042811686221586</v>
+        <v>0.009756943278405237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09201929561830671</v>
+        <v>0.01151684662133387</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0412835248165762</v>
+        <v>0.003001948195236467</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05281123422595477</v>
+        <v>0.005269740233434987</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04388984675113923</v>
+        <v>0.01305492711473683</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01437725336263561</v>
+        <v>0.01894138787899029</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03533064139130801</v>
+        <v>0.01839922673794344</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04383772456299687</v>
+        <v>0.0255593747315695</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00606535491106123</v>
+        <v>0.01040989934061737</v>
       </c>
       <c r="T5" t="n">
-        <v>0.009614591426948441</v>
+        <v>0.007784269415471836</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3296094224647906</v>
+        <v>0.01627831627066412</v>
       </c>
       <c r="C6" t="n">
-        <v>35.62166051268993</v>
+        <v>38.76512820512821</v>
       </c>
       <c r="D6" t="n">
-        <v>13.77730330234788</v>
+        <v>11.78728388895056</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1413753989744135</v>
+        <v>0.005596633715041933</v>
       </c>
       <c r="F6" t="n">
-        <v>58.09775</v>
+        <v>51.977</v>
       </c>
       <c r="G6" t="n">
-        <v>3.140105388620094</v>
+        <v>4.377549857549857</v>
       </c>
       <c r="H6" t="n">
-        <v>153.254135132841</v>
+        <v>184.4566381766381</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1892409367095024</v>
+        <v>0.00236789367667293</v>
       </c>
       <c r="J6" t="n">
-        <v>0.179379930770183</v>
+        <v>0.001630960656389982</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08374977043280399</v>
+        <v>0.002424115982725544</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09767299875408206</v>
+        <v>0.004591553569643198</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06055238695776655</v>
+        <v>0.002287805026166765</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01695569939918685</v>
+        <v>0.002990999769667068</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01706902361345267</v>
+        <v>0.005598587902903997</v>
       </c>
       <c r="P6" t="n">
-        <v>1.957260436992e-05</v>
+        <v>0.008354826903498315</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.770822315167999e-05</v>
+        <v>0.006145873887838571</v>
       </c>
       <c r="R6" t="n">
-        <v>7.037248348686529e-05</v>
+        <v>0.00827566683235143</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0002043909987588009</v>
+        <v>0.004967904460741412</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05049329623153888</v>
+        <v>0.004008789060831013</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1922876855961074</v>
+        <v>0.00179850486821376</v>
       </c>
       <c r="C7" t="n">
-        <v>20.80704574876538</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>4.124087547886711</v>
+        <v>3.134940676607343</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05229435736980934</v>
+        <v>0.0007403722712035999</v>
       </c>
       <c r="F7" t="n">
-        <v>87.88188679245283</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>6.336533218546584</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="H7" t="n">
-        <v>175.249941041012</v>
+        <v>121.6153846153846</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05800479886102503</v>
+        <v>0.00040551989678928</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04800231558552533</v>
+        <v>0.00031479272028288</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05822962704650978</v>
+        <v>0.0001167016535556453</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04207134376308189</v>
+        <v>1.076493240345511e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06054409971695185</v>
+        <v>0.001098145433929822</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04436415898928446</v>
+        <v>0.00110829872244672</v>
       </c>
       <c r="O7" t="n">
-        <v>0.055247265891838</v>
+        <v>0.00033395756206176</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07086118640716013</v>
+        <v>0.00049706259847776</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0695600077302088</v>
+        <v>6.850411529472e-05</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05186574116618139</v>
+        <v>4.240730946816e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04743453257463809</v>
+        <v>0.00021774522361536</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03810771599792176</v>
+        <v>0.00017615343932928</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3228346609896363</v>
+        <v>1.451195695158203</v>
       </c>
       <c r="C8" t="n">
-        <v>24.25409978795952</v>
+        <v>42.15384615384615</v>
       </c>
       <c r="D8" t="n">
-        <v>8.744285322382449</v>
+        <v>12.90648148148148</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1147268189458291</v>
+        <v>0.3837026265692987</v>
       </c>
       <c r="F8" t="n">
-        <v>79.21244444444444</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>3.621998501670055</v>
+        <v>12.4</v>
       </c>
       <c r="H8" t="n">
-        <v>186.2459645309723</v>
+        <v>186.6923076923077</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04268368810596554</v>
+        <v>0.7530712442298361</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05276392749566017</v>
+        <v>0.6645062288624256</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09186314990301335</v>
+        <v>0.59381883615168</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08099552221029357</v>
+        <v>0.1335340933137792</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1512539078868119</v>
+        <v>0.04128351576725376</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1553173719327569</v>
+        <v>0.041836441840704</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05838050464533898</v>
+        <v>0.002723790031168616</v>
       </c>
       <c r="P8" t="n">
-        <v>2.404077622862733e-05</v>
+        <v>0.00367230989490624</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.467945327744e-05</v>
+        <v>0.002907449214762967</v>
       </c>
       <c r="R8" t="n">
-        <v>0.000352413350001776</v>
+        <v>0.02182186359835575</v>
       </c>
       <c r="S8" t="n">
-        <v>0.008648553963624021</v>
+        <v>0.371145510364608</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01872563802938829</v>
+        <v>0.4228999930735311</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08464306848741365</v>
+        <v>0.0720484654131377</v>
       </c>
       <c r="C9" t="n">
-        <v>24.34493720925505</v>
+        <v>21.3465257400955</v>
       </c>
       <c r="D9" t="n">
-        <v>5.99921312341353</v>
+        <v>4.3901220083672</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0165295734762314</v>
+        <v>0.01808723808122292</v>
       </c>
       <c r="F9" t="n">
-        <v>77.38735135135134</v>
+        <v>87.74944615384615</v>
       </c>
       <c r="G9" t="n">
-        <v>4.401956257158655</v>
+        <v>5.3851411663003</v>
       </c>
       <c r="H9" t="n">
-        <v>191.7833253850046</v>
+        <v>132.6113315482889</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01541596389383059</v>
+        <v>0.0374761910000117</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02539224265872633</v>
+        <v>0.03505389116338994</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01720341911513782</v>
+        <v>0.02403051339500897</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01915674027813305</v>
+        <v>0.009342665285811671</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02674577535836521</v>
+        <v>0.003222191787730262</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03204340273547506</v>
+        <v>0.0008797724692154646</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03656754840080963</v>
+        <v>8.523922436282398e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01600802769738222</v>
+        <v>0.0001405559156899834</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00952468349870994</v>
+        <v>0.0001969052554728643</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02421031146180489</v>
+        <v>0.001602002358932906</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01866246976046248</v>
+        <v>0.006973692914663219</v>
       </c>
       <c r="T9" t="n">
-        <v>0.036937474485982</v>
+        <v>0.01646810363273798</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1384769566282658</v>
+        <v>0.000755801554579008</v>
       </c>
       <c r="C10" t="n">
-        <v>32.09769970000955</v>
+        <v>17.7</v>
       </c>
       <c r="D10" t="n">
-        <v>13.64978046505183</v>
+        <v>1.475643523143523</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05332595249159453</v>
+        <v>0.0001026330472183794</v>
       </c>
       <c r="F10" t="n">
-        <v>66.06753191489362</v>
+        <v>43.333</v>
       </c>
       <c r="G10" t="n">
-        <v>3.079363725326836</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>206.1317687856296</v>
+        <v>110.9</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04624222657056494</v>
+        <v>5.847315555513601e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05262517952780501</v>
+        <v>5.77881144021888e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07413689564362838</v>
+        <v>8.5210731167616e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05742722206137479</v>
+        <v>7.296090216298855e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01938709885409299</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005075989568134722</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0864707500516403</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01944633682081432</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01469836850883295</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02711662951657491</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01194634050277416</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05255985509856397</v>
+        <v>3.7677263412096e-05</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05668796195877682</v>
+        <v>1.663434869140399</v>
       </c>
       <c r="C11" t="n">
-        <v>24.94286893733994</v>
+        <v>41.76923076923077</v>
       </c>
       <c r="D11" t="n">
-        <v>6.725268756458549</v>
+        <v>17.19298245614035</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01950335689964386</v>
+        <v>0.8745611349613118</v>
       </c>
       <c r="F11" t="n">
-        <v>78.25247887323944</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>4.209649914933233</v>
+        <v>13.46666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>234.0301412805105</v>
+        <v>239.9333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001607016822686266</v>
+        <v>0.03785994105288192</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005590152883513828</v>
+        <v>0.206001660993408</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01909826117717053</v>
+        <v>0.5920712821900801</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0069818563806877</v>
+        <v>1.287176270735767</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02142327327700084</v>
+        <v>0.6693971843101855</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02854756545779771</v>
+        <v>0.5917147811819143</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02035499607581229</v>
+        <v>0.7816350137321888</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01036490504794134</v>
+        <v>0.16636713714432</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.00927969220687923</v>
+        <v>0.34619043979296</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00718436260276074</v>
+        <v>0.43977195443664</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007037945853263062</v>
+        <v>0.09982028228659201</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002141262978019654</v>
+        <v>0.159272068060224</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2477118055108723</v>
+        <v>0.1518688797013863</v>
       </c>
       <c r="C12" t="n">
-        <v>25.33545098198494</v>
+        <v>21.66533010263521</v>
       </c>
       <c r="D12" t="n">
-        <v>8.570297255135152</v>
+        <v>6.156511629062567</v>
       </c>
       <c r="E12" t="n">
-        <v>0.105694257226433</v>
+        <v>0.06072858080034404</v>
       </c>
       <c r="F12" t="n">
-        <v>77.7778</v>
+        <v>86.44702985074628</v>
       </c>
       <c r="G12" t="n">
-        <v>3.944677144306481</v>
+        <v>4.557045140743554</v>
       </c>
       <c r="H12" t="n">
-        <v>234.0083481217407</v>
+        <v>210.2242731969714</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0009993492700441063</v>
+        <v>0.001981351426589983</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003997841520022054</v>
+        <v>0.01315971403641652</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04597775835001109</v>
+        <v>0.05042811686221586</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05254477930244483</v>
+        <v>0.09201929561830671</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06021290034951324</v>
+        <v>0.0412835248165762</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1014817575758623</v>
+        <v>0.05281123422595477</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1348708466343825</v>
+        <v>0.04388984675113923</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1097153569808428</v>
+        <v>0.01437725336263561</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0570960446015711</v>
+        <v>0.03533064139130801</v>
       </c>
       <c r="R12" t="n">
-        <v>0.03379527615195738</v>
+        <v>0.04383772456299687</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03266854714570853</v>
+        <v>0.00606535491106123</v>
       </c>
       <c r="T12" t="n">
-        <v>0.009895894206481874</v>
+        <v>0.009614591426948441</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2765656097600197</v>
+        <v>0.0005629896541971073</v>
       </c>
       <c r="C13" t="n">
-        <v>22.60161579354273</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>9.970515404206408</v>
+        <v>1.340053296376826</v>
       </c>
       <c r="E13" t="n">
-        <v>0.174537606867249</v>
+        <v>4.05296881752089e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>83.52393333333333</v>
+        <v>43.333</v>
       </c>
       <c r="G13" t="n">
-        <v>2.74493164461404</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="H13" t="n">
-        <v>151.1192221208334</v>
+        <v>185.1666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07970436651330039</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06810293589130639</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1159964535815582</v>
+        <v>7.6822472151936e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1497045812115656</v>
+        <v>7.509874847163054e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1725120229669139</v>
+        <v>6.299932031568e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05763162871183408</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003832547001098597</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02546414857447515</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02338701952780371</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02936934527721066</v>
+        <v>5.492562101308801e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.09403909028953213</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.05418789640698499</v>
+        <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2659980165042897</v>
+        <v>1.275791284342316</v>
       </c>
       <c r="C14" t="n">
-        <v>20.07897453315461</v>
+        <v>68.5</v>
       </c>
       <c r="D14" t="n">
-        <v>4.61707331570779</v>
+        <v>36.88888888888889</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07246912435187189</v>
+        <v>0.7306720040936679</v>
       </c>
       <c r="F14" t="n">
-        <v>91.60545161290324</v>
+        <v>90</v>
       </c>
       <c r="G14" t="n">
-        <v>5.749131376995964</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="H14" t="n">
-        <v>154.694595762292</v>
+        <v>208.2222222222222</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06224172880655995</v>
+        <v>0.5632261564999104</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08840832542982469</v>
+        <v>0.9718491266070073</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08646772148085459</v>
+        <v>0.2536155162311629</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07167339646548951</v>
+        <v>0.4433398771082422</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1269907234176494</v>
+        <v>0.2909296379300391</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08162514239956284</v>
+        <v>0.08004496165712641</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04464242485921208</v>
+        <v>0.191322207715968</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02635886757643975</v>
+        <v>0.0003914520873984001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02980553104421814</v>
+        <v>0.0009541644630335999</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06216886710799653</v>
+        <v>0.0011254247512704</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0400168561602391</v>
+        <v>0.003271071505322898</v>
       </c>
       <c r="T14" t="n">
-        <v>0.05814669810071623</v>
+        <v>0.350655440164848</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03464171619218398</v>
+        <v>0.3296094224647906</v>
       </c>
       <c r="C15" t="n">
-        <v>19.53662447305186</v>
+        <v>35.62166051268993</v>
       </c>
       <c r="D15" t="n">
-        <v>3.227188323505031</v>
+        <v>13.77730330234788</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009398101583050697</v>
+        <v>0.1413753989744135</v>
       </c>
       <c r="F15" t="n">
-        <v>93.94172826086955</v>
+        <v>58.09775</v>
       </c>
       <c r="G15" t="n">
-        <v>7.590070840702317</v>
+        <v>3.140105388620094</v>
       </c>
       <c r="H15" t="n">
-        <v>182.5981306058593</v>
+        <v>153.254135132841</v>
       </c>
       <c r="I15" t="n">
-        <v>0.005898707841107509</v>
+        <v>0.1892409367095024</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0104480810396852</v>
+        <v>0.179379930770183</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01044849985560377</v>
+        <v>0.08374977043280399</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006212738596312883</v>
+        <v>0.09767299875408206</v>
       </c>
       <c r="M15" t="n">
-        <v>0.007742328470808604</v>
+        <v>0.06055238695776655</v>
       </c>
       <c r="N15" t="n">
-        <v>0.005414036490180065</v>
+        <v>0.01695569939918685</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005658416038773391</v>
+        <v>0.01706902361345267</v>
       </c>
       <c r="P15" t="n">
-        <v>0.005970300197308616</v>
+        <v>1.957260436992e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02775164510740506</v>
+        <v>4.770822315167999e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01751577502621627</v>
+        <v>7.037248348686529e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.007893692902333729</v>
+        <v>0.0002043909987588009</v>
       </c>
       <c r="T15" t="n">
-        <v>0.006823149072598441</v>
+        <v>0.05049329623153888</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1017903993263628</v>
+        <v>0.001782400187594304</v>
       </c>
       <c r="C16" t="n">
-        <v>25.40900797457556</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="D16" t="n">
-        <v>13.22122661061552</v>
+        <v>3.174106140772807</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0611197882123693</v>
+        <v>0.0003310755959285157</v>
       </c>
       <c r="F16" t="n">
-        <v>73.33914583333333</v>
+        <v>26.667</v>
       </c>
       <c r="G16" t="n">
-        <v>2.461592039443552</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9330685274919</v>
+        <v>125.75</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002419135672379202</v>
+        <v>0.0007391104725191041</v>
       </c>
       <c r="J16" t="n">
-        <v>0.004583391266927571</v>
+        <v>0.0005966766008653553</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007222167979479516</v>
+        <v>0.000979049631446784</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01280291282455199</v>
+        <v>0.000177866042211648</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04791165852470158</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05983801504678766</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0204653272848871</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>9.479290934122818e-05</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.001272300836563008</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.6341463381184e-05</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001379475711832785</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.003145236819233334</v>
+        <v>0.000271202899300704</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0989148673987255</v>
+        <v>1.0275617294208</v>
       </c>
       <c r="C17" t="n">
-        <v>24.05162649020126</v>
+        <v>38.71428571428572</v>
       </c>
       <c r="D17" t="n">
-        <v>7.841449038210119</v>
+        <v>15.44907407407408</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03324493126397336</v>
+        <v>0.3926450195119648</v>
       </c>
       <c r="F17" t="n">
-        <v>80.42023636363636</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>4.285024310435325</v>
+        <v>13.7</v>
       </c>
       <c r="H17" t="n">
-        <v>157.5159090367107</v>
+        <v>233.3333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04272955383559584</v>
+        <v>0.510396435204768</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03788191803457202</v>
+        <v>0.383623045650432</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03153967975021717</v>
+        <v>0.5589295934444751</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02979205597238743</v>
+        <v>0.28652118063744</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01308362484467721</v>
+        <v>0.4537688131366802</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01082474390852316</v>
+        <v>0.47166481423584</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001596282458320108</v>
+        <v>0.6449173139888652</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0007144736421150997</v>
+        <v>0.5484733059560832</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0008197731786148034</v>
+        <v>0.770426639510976</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001272718522401662</v>
+        <v>0.4341489083061991</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01165519154676928</v>
+        <v>0.5835082677782401</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02362263194038551</v>
+        <v>0.419832363734784</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.174860384466331</v>
+        <v>0.1922876855961074</v>
       </c>
       <c r="C18" t="n">
-        <v>24.9179941699729</v>
+        <v>20.80704574876538</v>
       </c>
       <c r="D18" t="n">
-        <v>9.00825321672232</v>
+        <v>4.124087547886711</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08026624126261434</v>
+        <v>0.05229435736980934</v>
       </c>
       <c r="F18" t="n">
-        <v>78.49435384615384</v>
+        <v>87.88188679245283</v>
       </c>
       <c r="G18" t="n">
-        <v>3.929665024870451</v>
+        <v>6.336533218546584</v>
       </c>
       <c r="H18" t="n">
-        <v>176.640001633333</v>
+        <v>175.249941041012</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03025957424376725</v>
+        <v>0.05800479886102503</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02452823468713337</v>
+        <v>0.04800231558552533</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02533992220154688</v>
+        <v>0.05822962704650978</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02158604487601751</v>
+        <v>0.04207134376308189</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05220931217049375</v>
+        <v>0.06054409971695185</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06295886742887842</v>
+        <v>0.04436415898928446</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01593924729823177</v>
+        <v>0.055247265891838</v>
       </c>
       <c r="P18" t="n">
-        <v>0.003566711034186625</v>
+        <v>0.07086118640716013</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.001795049968968037</v>
+        <v>0.0695600077302088</v>
       </c>
       <c r="R18" t="n">
-        <v>0.004574662171764297</v>
+        <v>0.05186574116618139</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02024808059925495</v>
+        <v>0.04743453257463809</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02687476829654034</v>
+        <v>0.03810771599792176</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09671915226562408</v>
+        <v>0.002413473379099373</v>
       </c>
       <c r="C19" t="n">
-        <v>18.97548759823508</v>
+        <v>17.57142857142857</v>
       </c>
       <c r="D19" t="n">
-        <v>2.321544551455488</v>
+        <v>1.32662599325912</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01544778303032959</v>
+        <v>0.0002149687067854032</v>
       </c>
       <c r="F19" t="n">
-        <v>96.47441516245487</v>
+        <v>46.66699999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>8.534183157525851</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="H19" t="n">
-        <v>173.5774261872407</v>
+        <v>131.5862068965517</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02327467998785744</v>
+        <v>0.0002079589214304</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02285859095524765</v>
+        <v>0.000233335346679456</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02901529621541169</v>
+        <v>0.0003419024942303394</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02423136381696646</v>
+        <v>0.0003737216104985901</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01966700963208619</v>
+        <v>0.0005008526444555318</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01695746464829528</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01991625621108074</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01177586225756473</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04623397227019697</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01642702104310835</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01762807483923421</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02229367128622272</v>
+        <v>0.000349722683237844</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04384050096412184</v>
+        <v>3.91428786678912</v>
       </c>
       <c r="C20" t="n">
-        <v>30.48455467183848</v>
+        <v>54.8</v>
       </c>
       <c r="D20" t="n">
-        <v>13.3121551911769</v>
+        <v>50.56666666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02217779890697298</v>
+        <v>1.035701678586539</v>
       </c>
       <c r="F20" t="n">
-        <v>61.3308947368421</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>3.477265785321993</v>
+        <v>7.214285714285714</v>
       </c>
       <c r="H20" t="n">
-        <v>238.8796309146768</v>
+        <v>239.3703703703704</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001306381204698351</v>
+        <v>0.71929321059456</v>
       </c>
       <c r="J20" t="n">
-        <v>5.573771240492766e-05</v>
+        <v>0.6043041599212801</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003480485165195484</v>
+        <v>1.17354073701312</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006636175226609867</v>
+        <v>0.8881069232851201</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02168238285133813</v>
+        <v>1.96990107731424</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02303336227685053</v>
+        <v>2.187075433302144</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0232332014169077</v>
+        <v>1.04468775824448</v>
       </c>
       <c r="P20" t="n">
-        <v>0.001810450048691165</v>
+        <v>0.000621209996945802</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.001858885980587918</v>
+        <v>0.0003914520873984</v>
       </c>
       <c r="R20" t="n">
-        <v>0.000878247259902998</v>
+        <v>0.008832137721926401</v>
       </c>
       <c r="S20" t="n">
-        <v>2.049669250950922e-05</v>
+        <v>0.060185758437504</v>
       </c>
       <c r="T20" t="n">
-        <v>2.053835787501474e-06</v>
+        <v>0.131870421942336</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07141617196225396</v>
+        <v>0.3228346609896363</v>
       </c>
       <c r="C21" t="n">
-        <v>19.21435488823472</v>
+        <v>24.25409978795952</v>
       </c>
       <c r="D21" t="n">
-        <v>3.321418644653847</v>
+        <v>8.744285322382449</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01536244531823862</v>
+        <v>0.1147268189458291</v>
       </c>
       <c r="F21" t="n">
-        <v>95.96619161676647</v>
+        <v>79.21244444444444</v>
       </c>
       <c r="G21" t="n">
-        <v>7.072471461897437</v>
+        <v>3.621998501670055</v>
       </c>
       <c r="H21" t="n">
-        <v>188.1282736308361</v>
+        <v>186.2459645309723</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01247285365606875</v>
+        <v>0.04268368810596554</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01271510746754987</v>
+        <v>0.05276392749566017</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01548184066534999</v>
+        <v>0.09186314990301335</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01692059906504601</v>
+        <v>0.08099552221029357</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01627656452656741</v>
+        <v>0.1512539078868119</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02471254713005948</v>
+        <v>0.1553173719327569</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0262078675769014</v>
+        <v>0.05838050464533898</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01827771470957453</v>
+        <v>2.404077622862733e-05</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02204879873138485</v>
+        <v>1.467945327744e-05</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0170554680919229</v>
+        <v>0.000352413350001776</v>
       </c>
       <c r="S21" t="n">
-        <v>0.007375591145892928</v>
+        <v>0.008648553963624021</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01266474203697608</v>
+        <v>0.01872563802938829</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0825026724498989</v>
+        <v>0.001902282389360064</v>
       </c>
       <c r="C22" t="n">
-        <v>40.7485241650459</v>
+        <v>18.23333333333333</v>
       </c>
       <c r="D22" t="n">
-        <v>19.82959690416937</v>
+        <v>2.580455705009276</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03757958373149593</v>
+        <v>0.0002440117506547855</v>
       </c>
       <c r="F22" t="n">
-        <v>50.89955555555556</v>
+        <v>33.333</v>
       </c>
       <c r="G22" t="n">
-        <v>2.664961624526842</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
-        <v>205.2702262793567</v>
+        <v>112.3448275862069</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001002364719711801</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01772116376213743</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02392152639867971</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02156007072698238</v>
+        <v>0.000349839914982768</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02684289565483492</v>
+        <v>0.000101655213946272</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04139540864249122</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.009314913678422755</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0002297062596192</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0002060889798512873</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0002756961954134678</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0007093220560349941</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.001322844368931052</v>
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2393919508918752</v>
+        <v>0.4929086394103173</v>
       </c>
       <c r="C23" t="n">
-        <v>19.94671404441663</v>
+        <v>42.33333333333334</v>
       </c>
       <c r="D23" t="n">
-        <v>3.415158336340189</v>
+        <v>30.07738095238095</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04211442473249939</v>
+        <v>0.08101170955108414</v>
       </c>
       <c r="F23" t="n">
-        <v>92.20855</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>6.414802150116804</v>
+        <v>7.214285714285714</v>
       </c>
       <c r="H23" t="n">
-        <v>159.6493930179016</v>
+        <v>219.9090909090909</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06741147926502597</v>
+        <v>0.1908598049377289</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07186896407150578</v>
+        <v>0.2433412969801229</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06817589884248458</v>
+        <v>0.09991626332725219</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05174979073450849</v>
+        <v>0.1560530736629568</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04988616360304768</v>
+        <v>0.155428497877081</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02963351045261616</v>
+        <v>0.2784714528326243</v>
       </c>
       <c r="O23" t="n">
-        <v>0.06612868039096352</v>
+        <v>0.1754261947481603</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01345076335271437</v>
+        <v>0.1088367286996687</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0708385214028998</v>
+        <v>0.08586440372695267</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04140912458191592</v>
+        <v>0.1854341159013504</v>
       </c>
       <c r="S23" t="n">
-        <v>0.05332678818505669</v>
+        <v>0.0871555839714807</v>
       </c>
       <c r="T23" t="n">
-        <v>0.07720575894379304</v>
+        <v>0.243782598044276</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1034027155966696</v>
+        <v>0.08464306848741365</v>
       </c>
       <c r="C24" t="n">
-        <v>23.50424140750759</v>
+        <v>24.34493720925505</v>
       </c>
       <c r="D24" t="n">
-        <v>6.925139745463682</v>
+        <v>5.99921312341353</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03954279535580169</v>
+        <v>0.0165295734762314</v>
       </c>
       <c r="F24" t="n">
-        <v>79.71928682170542</v>
+        <v>77.38735135135134</v>
       </c>
       <c r="G24" t="n">
-        <v>4.136794555473539</v>
+        <v>4.401956257158655</v>
       </c>
       <c r="H24" t="n">
-        <v>210.3953140705535</v>
+        <v>191.7833253850046</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03893786396092599</v>
+        <v>0.01541596389383059</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04121893252359107</v>
+        <v>0.02539224265872633</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04174186946419625</v>
+        <v>0.01720341911513782</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03358656426974732</v>
+        <v>0.01915674027813305</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01122718990718738</v>
+        <v>0.02674577535836521</v>
       </c>
       <c r="N24" t="n">
-        <v>0.009008081446333506</v>
+        <v>0.03204340273547506</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04054212415348189</v>
+        <v>0.03656754840080963</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01697501537662665</v>
+        <v>0.01600802769738222</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02698553774788798</v>
+        <v>0.00952468349870994</v>
       </c>
       <c r="R24" t="n">
-        <v>0.03207557029730093</v>
+        <v>0.02421031146180489</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01283178475659118</v>
+        <v>0.01866246976046248</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0306926496099375</v>
+        <v>0.036937474485982</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.09354172807308157</v>
+        <v>0.0007849429877519999</v>
       </c>
       <c r="C25" t="n">
-        <v>18.62062600856182</v>
+        <v>18.23333333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>2.716488009205838</v>
+        <v>2.197147340676752</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01492519329775589</v>
+        <v>0.00047906279267328</v>
       </c>
       <c r="F25" t="n">
-        <v>97.8389010989011</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>6.883890588886882</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>165.8923145275703</v>
+        <v>158.7931034482759</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02146616935997668</v>
+        <v>0.00012722192840448</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02053566601094671</v>
+        <v>0.0004159178428608</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02918608092531313</v>
+        <v>0.00025260892514928</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02552072132272042</v>
+        <v>1.141735254912e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02012030923091435</v>
+        <v>0.00015658083495936</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01821067126397484</v>
+        <v>0.00021285207252288</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01130575867068585</v>
+        <v>0.00019389111203952</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01205905307602928</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.04391484144870025</v>
+        <v>0.0001918563767102305</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01049761261839571</v>
+        <v>0.0002018424825648</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0135386916007288</v>
+        <v>3.66986331936e-06</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01800791378076333</v>
+        <v>0.00024710413017024</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.582992630216</v>
+      </c>
+      <c r="C26" t="n">
+        <v>137</v>
+      </c>
+      <c r="D26" t="n">
+        <v>79.28</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4334532986126263</v>
+      </c>
+      <c r="F26" t="n">
+        <v>96.667</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.392857142857143</v>
+      </c>
+      <c r="H26" t="n">
+        <v>296.2758620689655</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3809562783050304</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.4982117475979637</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.55537264899648</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6011480774666305</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.244657554624</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.069972060622464</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.099858036812192</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.145326587446656</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.07861662755251202</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.2303858639376</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.202331797674048</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.542130558852456</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1384769566282658</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32.09769970000955</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13.64978046505183</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.05332595249159453</v>
+      </c>
+      <c r="F27" t="n">
+        <v>66.06753191489362</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.079363725326836</v>
+      </c>
+      <c r="H27" t="n">
+        <v>206.1317687856296</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.04624222657056494</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.05262517952780501</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.07413689564362838</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.05742722206137479</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.01938709885409299</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.005075989568134722</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0864707500516403</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.01944633682081432</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.01469836850883295</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.02711662951657491</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01194634050277416</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.05255985509856397</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0004631497993061483</v>
+      </c>
+      <c r="C28" t="n">
+        <v>18.82758620689655</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.447570217911833</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0001893249865450554</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13.333</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="H28" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0001699880689527552</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0001609449140899667</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0001518915651624</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.724986778201601e-05</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.000137517933828241</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.0001317096469778698</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.00025933700790144</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.340930302368544</v>
+      </c>
+      <c r="C29" t="n">
+        <v>77.57142857142857</v>
+      </c>
+      <c r="D29" t="n">
+        <v>28.90909090909091</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1784930412723506</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>288.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0412003321986816</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.04254817290870109</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.227195121662712</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.032050139655744</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1771748846198352</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1916845233127704</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1269201840871104</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.08440685634528</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.1060345841740416</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0557737672024512</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1044116890617024</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0227577399091813</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.05668796195877682</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24.94286893733994</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.725268756458549</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01950335689964386</v>
+      </c>
+      <c r="F30" t="n">
+        <v>78.25247887323944</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.209649914933233</v>
+      </c>
+      <c r="H30" t="n">
+        <v>234.0301412805105</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.001607016822686266</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.005590152883513828</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01909826117717053</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0069818563806877</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.02142327327700084</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.02854756545779771</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.02035499607581229</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.01036490504794134</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.00927969220687923</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.00718436260276074</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.007037945853263062</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.002141262978019654</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8.668119297306471e-05</v>
+      </c>
+      <c r="C31" t="n">
+        <v>17.86666666666667</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.531174274443505</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.067387548973313e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>23.333</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.692307692307692</v>
+      </c>
+      <c r="H31" t="n">
+        <v>189.5652173913043</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.27164539468384e-05</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.14488219919428e-05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.78926224948352e-05</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6.312164909299201e-05</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.193321749564416</v>
+      </c>
+      <c r="C32" t="n">
+        <v>60.66666666666666</v>
+      </c>
+      <c r="D32" t="n">
+        <v>29.78703703703703</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.774263382176432</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.733333333333333</v>
+      </c>
+      <c r="H32" t="n">
+        <v>278</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.02135126479203648</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.049665483588672</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5948848440682559</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.90767952765504</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.902052403898688</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.556609225539738</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.411344858374144</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.403108054035136</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.994165973214624</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.6655501010954881</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.673664576657184</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.111074529799296</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2477118055108723</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25.33545098198494</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.570297255135152</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.105694257226433</v>
+      </c>
+      <c r="F33" t="n">
+        <v>77.7778</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.944677144306481</v>
+      </c>
+      <c r="H33" t="n">
+        <v>234.0083481217407</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0009993492700441063</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.003997841520022054</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.04597775835001109</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.05254477930244483</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.06021290034951324</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1014817575758623</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.1348708466343825</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.1097153569808428</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0570960446015711</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.03379527615195738</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.03266854714570853</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.009895894206481874</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0002269135389401234</v>
+      </c>
+      <c r="C34" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.930296571620101</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.106582284968535e-05</v>
+      </c>
+      <c r="F34" t="n">
+        <v>30</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.764705882352941</v>
+      </c>
+      <c r="H34" t="n">
+        <v>200.3461538461538</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.100874421556308e-05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.749316612800388e-05</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9.453993402070791e-05</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.448359131287712</v>
+      </c>
+      <c r="C35" t="n">
+        <v>36.46666666666667</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24.77777777777778</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.170028315360856</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.517241379310345</v>
+      </c>
+      <c r="H35" t="n">
+        <v>166.2777777777778</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.576413198694144</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.4074037599598849</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.5320384347242161</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9893601998202239</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8325251751937223</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.424807067345472</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.03139771951008</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.2363881292777099</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.114866721895968</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.2004724002589059</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.745471568939328</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.22416748442424</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2765656097600197</v>
+      </c>
+      <c r="C36" t="n">
+        <v>22.60161579354273</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.970515404206408</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.174537606867249</v>
+      </c>
+      <c r="F36" t="n">
+        <v>83.52393333333333</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.74493164461404</v>
+      </c>
+      <c r="H36" t="n">
+        <v>151.1192221208334</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.07970436651330039</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.06810293589130639</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1159964535815582</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1497045812115656</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1725120229669139</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.05763162871183408</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.003832547001098597</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.02546414857447515</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.02338701952780371</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.02936934527721066</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.09403909028953213</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.05418789640698499</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01769249261515277</v>
+      </c>
+      <c r="C37" t="n">
+        <v>17</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.948522167487685</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.00551905851447458</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.533333333333333</v>
+      </c>
+      <c r="H37" t="n">
+        <v>139.1923076923077</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.00396177036422076</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0035801555493312</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.004217519845479877</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.00541671825937536</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0129454428590424</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0005871781310976001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0018559023072192</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.00493046136956016</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.708786224515866</v>
+      </c>
+      <c r="C38" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20.90625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5300636404958092</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>12.16666666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>174</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.56847930370848</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.79146718920864</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.661336554321408</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.5337298653182031</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.17109416146688</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.461461902546464</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.712279694028672</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.426682775264256</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.334446877171008</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.782170202132928</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.305577285725376</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.291876462666432</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2659980165042897</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20.07897453315461</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.61707331570779</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.07246912435187189</v>
+      </c>
+      <c r="F39" t="n">
+        <v>91.60545161290324</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.749131376995964</v>
+      </c>
+      <c r="H39" t="n">
+        <v>154.694595762292</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.06224172880655995</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.08840832542982469</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.08646772148085459</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.07167339646548951</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1269907234176494</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.08162514239956284</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.04464242485921208</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.02635886757643975</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.02980553104421814</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.06216886710799653</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0400168561602391</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.05814669810071623</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01831229175353357</v>
+      </c>
+      <c r="C40" t="n">
+        <v>17.46666666666667</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.402688560006671</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001621523963356894</v>
+      </c>
+      <c r="F40" t="n">
+        <v>53.333</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H40" t="n">
+        <v>138.8275862068965</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.00306112474126116</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.004136865659626291</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.003943973879598351</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.003122415447676341</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.002117228838092308</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.00119868609679392</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.00201516272491968</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.0024384202944192</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3120851766783762</v>
+      </c>
+      <c r="C41" t="n">
+        <v>36.46666666666667</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.05555555555555</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1097492127343745</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="H41" t="n">
+        <v>217.8333333333333</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.06869137242306743</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1051509940056117</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1150746808173991</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.07274225138868444</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.1437852448525248</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.07170912926029439</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.08237008220303568</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.07747693111055569</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.3392910967525632</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2192718867562138</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.08499199566342286</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.07689586941832392</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.03464171619218398</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19.53662447305186</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.227188323505031</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.009398101583050697</v>
+      </c>
+      <c r="F42" t="n">
+        <v>93.94172826086955</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.590070840702317</v>
+      </c>
+      <c r="H42" t="n">
+        <v>182.5981306058593</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.005898707841107509</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0104480810396852</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01044849985560377</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.006212738596312883</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.007742328470808604</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.005414036490180065</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.005658416038773391</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.005970300197308616</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.02775164510740506</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.01751577502621627</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.007893692902333729</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.006823149072598441</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9.44622818403264e-05</v>
+      </c>
+      <c r="C43" t="n">
+        <v>17.44827586206896</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.171964478598882</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8.517092619328253e-06</v>
+      </c>
+      <c r="F43" t="n">
+        <v>50</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.347826086956522</v>
+      </c>
+      <c r="H43" t="n">
+        <v>153.8620689655172</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.201880237090401e-05</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8.1645721085952e-06</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.1563845022832e-05</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.670875177218241e-05</v>
+      </c>
+      <c r="M43" t="n">
+        <v>9.745525925856002e-06</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.73875065851844e-05</v>
+      </c>
+      <c r="O43" t="n">
+        <v>9.78630218496e-06</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.95817790282184e-05</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3.877822240790398e-06</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3.808502600313599e-06</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.0582194328e-06</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.203270336832582e-05</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.067044798593216</v>
+      </c>
+      <c r="C44" t="n">
+        <v>41.92307692307692</v>
+      </c>
+      <c r="D44" t="n">
+        <v>25.32352941176471</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.831552193634496</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="H44" t="n">
+        <v>271.1875</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.083672883681408</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.100595031209568</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.140596541390592</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.124102544583024</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5165008810529845</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6573433424210829</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.30704523105312</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.00202413350192256</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0608218680795264</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0011988220176576</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.021774522361536</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.086975760668832</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1017903993263628</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25.40900797457556</v>
+      </c>
+      <c r="D45" t="n">
+        <v>13.22122661061552</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0611197882123693</v>
+      </c>
+      <c r="F45" t="n">
+        <v>73.33914583333333</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.461592039443552</v>
+      </c>
+      <c r="H45" t="n">
+        <v>238.9330685274919</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.002419135672379202</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.004583391266927571</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.007222167979479516</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.01280291282455199</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.04791165852470158</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.05983801504678766</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0204653272848871</v>
+      </c>
+      <c r="P45" t="n">
+        <v>9.479290934122818e-05</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.001272300836563008</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.6341463381184e-05</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.001379475711832785</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.003145236819233334</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.001175892711638239</v>
+      </c>
+      <c r="C46" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.231375661375662</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0003884329126614323</v>
+      </c>
+      <c r="F46" t="n">
+        <v>43.333</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H46" t="n">
+        <v>192.1578947368421</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0003700445513688</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.66439628271616</v>
+      </c>
+      <c r="C47" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D47" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5570731700242987</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8.933333333333334</v>
+      </c>
+      <c r="H47" t="n">
+        <v>270.4666666666666</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8629615635043201</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.6624357358905381</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.5786819270179854</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.61898361319872</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1121479648202093</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0674276220543744</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.06939052843493464</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.0288206599347072</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.009583236414622099</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.01577307254660948</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.41661686444544</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.74158423223808</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0989148673987255</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24.05162649020126</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7.841449038210119</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.03324493126397336</v>
+      </c>
+      <c r="F48" t="n">
+        <v>80.42023636363636</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.285024310435325</v>
+      </c>
+      <c r="H48" t="n">
+        <v>157.5159090367107</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.04272955383559584</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.03788191803457202</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.03153967975021717</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.02979205597238743</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.01308362484467721</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.01082474390852316</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.001596282458320108</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.0007144736421150997</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.0008197731786148034</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.001272718522401662</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.01165519154676928</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.02362263194038551</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0003152873676721647</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.997218152218152</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.589646898652917e-05</v>
+      </c>
+      <c r="F49" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.451527518157389</v>
+      </c>
+      <c r="C50" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.11625331215035</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.366666666666667</v>
+      </c>
+      <c r="H50" t="n">
+        <v>275.7391304347826</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1493948702750788</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2627744465439072</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.488010268956672</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.1837486971917184</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.668587932398736</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.9082120176268688</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.219947141606976</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.119148229101888</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.0171676206079661</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.05016919031878024</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.170281658018304</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.1834078577417167</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.174860384466331</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24.9179941699729</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9.00825321672232</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.08026624126261434</v>
+      </c>
+      <c r="F51" t="n">
+        <v>78.49435384615384</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.929665024870451</v>
+      </c>
+      <c r="H51" t="n">
+        <v>176.640001633333</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.03025957424376725</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.02452823468713337</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.02533992220154688</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.02158604487601751</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.05220931217049375</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.06295886742887842</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.01593924729823177</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.003566711034186625</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.001795049968968037</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.004574662171764297</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.02024808059925495</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.02687476829654034</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0001854259606495296</v>
+      </c>
+      <c r="C52" t="n">
+        <v>18.03333333333333</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.130929163429164</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0001047215886308928</v>
+      </c>
+      <c r="F52" t="n">
+        <v>26.667</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>81.68965517241379</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.769605070861888</v>
+      </c>
+      <c r="C53" t="n">
+        <v>45.33333333333334</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.58126984126984</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.6463243861869459</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="H53" t="n">
+        <v>229.1333333333333</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9012807916110277</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.394116136326528</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.021895975524244</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.342517554740096</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.4751249710798081</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8269425346291199</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.6768859011264</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.41469455508768</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.8094842522656</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.279888242489856</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.443319488978688</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.5740555895314037</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.09671915226562408</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18.97548759823508</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.321544551455488</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.01544778303032959</v>
+      </c>
+      <c r="F54" t="n">
+        <v>96.47441516245487</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.534183157525851</v>
+      </c>
+      <c r="H54" t="n">
+        <v>173.5774261872407</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.02327467998785744</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.02285859095524765</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.02901529621541169</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.02423136381696646</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.01966700963208619</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01695746464829528</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.01991625621108074</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.01177586225756473</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.04623397227019697</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.01642702104310835</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.01762807483923421</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.02229367128622272</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0001061864405872565</v>
+      </c>
+      <c r="C55" t="n">
+        <v>17.56666666666667</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.110107031185911</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6.671364689695713e-06</v>
+      </c>
+      <c r="F55" t="n">
+        <v>40</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>131.3666666666667</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.123345162056096e-05</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.208320487425355e-05</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.056167843499914e-05</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.084566939648192e-05</v>
+      </c>
+      <c r="M55" t="n">
+        <v>7.117204767609601e-06</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.15886128373568e-05</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.843054290493517e-05</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.77590802462696e-05</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.147875679812367e-05</v>
+      </c>
+      <c r="T55" t="n">
+        <v>8.182571914399681e-06</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.106181378706816</v>
+      </c>
+      <c r="C56" t="n">
+        <v>36.33333333333334</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20.98777777777778</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.06770836659830544</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10.96551724137931</v>
+      </c>
+      <c r="H56" t="n">
+        <v>271.3333333333333</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.00246370157506368</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0007939137647548801</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.002691233100864</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0197089135789248</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.05834104047563904</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0587830551243264</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.08235173288643841</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.008593596606168</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.0128689873732224</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.0097373706740352</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.00032967605485584</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.9022879962528e-05</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.04384050096412184</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30.48455467183848</v>
+      </c>
+      <c r="D57" t="n">
+        <v>13.3121551911769</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.02217779890697298</v>
+      </c>
+      <c r="F57" t="n">
+        <v>61.3308947368421</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.477265785321993</v>
+      </c>
+      <c r="H57" t="n">
+        <v>238.8796309146768</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0001306381204698351</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5.573771240492766e-05</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0003480485165195484</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.006636175226609867</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.02168238285133813</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.02303336227685053</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.0232332014169077</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.001810450048691165</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.001858885980587918</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.000878247259902998</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.049669250950922e-05</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.053835787501474e-06</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0004101726085608364</v>
+      </c>
+      <c r="C58" t="n">
+        <v>17.51724137931035</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.61877336096403</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.676196964946803e-05</v>
+      </c>
+      <c r="F58" t="n">
+        <v>50</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>218.125</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.4079136091424e-05</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3.376496669769949e-05</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.59796118247328e-05</v>
+      </c>
+      <c r="O58" t="n">
+        <v>9.75714715970067e-05</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7212248402401175</v>
+      </c>
+      <c r="C59" t="n">
+        <v>46.45454545454545</v>
+      </c>
+      <c r="D59" t="n">
+        <v>16.47727272727273</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2558234632839458</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" t="n">
+        <v>14.46666666666667</v>
+      </c>
+      <c r="H59" t="n">
+        <v>248.5909090909091</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.2039710032900293</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.1734948272356996</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.1610372723168367</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.1905423617606048</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.1949235669200338</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.3444615264069514</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.2901491803307866</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.39695688237744</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.418303254018384</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.261416597115744</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.115820886359002</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.169033904489722</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.07141617196225396</v>
+      </c>
+      <c r="C60" t="n">
+        <v>19.21435488823472</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.321418644653847</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01536244531823862</v>
+      </c>
+      <c r="F60" t="n">
+        <v>95.96619161676647</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7.072471461897437</v>
+      </c>
+      <c r="H60" t="n">
+        <v>188.1282736308361</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01247285365606875</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01271510746754987</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.01548184066534999</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01692059906504601</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.01627656452656741</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.02471254713005948</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.0262078675769014</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.01827771470957453</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.02204879873138485</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.0170554680919229</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.007375591145892928</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.01266474203697608</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0009304571459905344</v>
+      </c>
+      <c r="C61" t="n">
+        <v>17.60714285714286</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.244456309943926</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9.911381035573592e-05</v>
+      </c>
+      <c r="F61" t="n">
+        <v>39.286</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.461538461538461</v>
+      </c>
+      <c r="H61" t="n">
+        <v>150.9655172413793</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>9.271356284275202e-05</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.00019090085303856</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.000162180774542976</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.000199273578241248</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.00010224646970328</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.449333987196528</v>
+      </c>
+      <c r="C62" t="n">
+        <v>77.71428571428571</v>
+      </c>
+      <c r="D62" t="n">
+        <v>57.38095238095239</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1992348407950992</v>
+      </c>
+      <c r="F62" t="n">
+        <v>83.333</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="H62" t="n">
+        <v>260.6363636363636</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.007422176234628291</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.145815902555904</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.194584308444288</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.107679906228888</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.120738503206944</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.2476179110349504</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.02935890655488</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.0018838631706048</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.00110829872244672</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.00101500973314009</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.004632150413207107</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.008340987681018725</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0825026724498989</v>
+      </c>
+      <c r="C63" t="n">
+        <v>40.7485241650459</v>
+      </c>
+      <c r="D63" t="n">
+        <v>19.82959690416937</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.03757958373149593</v>
+      </c>
+      <c r="F63" t="n">
+        <v>50.89955555555556</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.664961624526842</v>
+      </c>
+      <c r="H63" t="n">
+        <v>205.2702262793567</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.001002364719711801</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.01772116376213743</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.02392152639867971</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.02156007072698238</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.02684289565483492</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.04139540864249122</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.009314913678422755</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.0002297062596192</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.0002060889798512873</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0002756961954134678</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.0007093220560349941</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.001322844368931052</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.001843669429488</v>
+      </c>
+      <c r="C64" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.083904761904763</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0004558369849984339</v>
+      </c>
+      <c r="F64" t="n">
+        <v>23.333</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="H64" t="n">
+        <v>80.14285714285714</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.017404363277992</v>
+      </c>
+      <c r="C65" t="n">
+        <v>30.38888888888889</v>
+      </c>
+      <c r="D65" t="n">
+        <v>7.544444444444444</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.1808553245960326</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" t="n">
+        <v>14.53333333333333</v>
+      </c>
+      <c r="H65" t="n">
+        <v>191.4333333333333</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.3741295170058398</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.301115955216807</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.2696989749208094</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.2526964868004082</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.286167786391872</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.169058370245184</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.5729064404112</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.181291247976384</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.62815827149712</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.285305659770816</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.260490393516096</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.47477157683424</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.2393919508918752</v>
+      </c>
+      <c r="C66" t="n">
+        <v>19.94671404441663</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.415158336340189</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.04211442473249939</v>
+      </c>
+      <c r="F66" t="n">
+        <v>92.20855</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6.414802150116804</v>
+      </c>
+      <c r="H66" t="n">
+        <v>159.6493930179016</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.06741147926502597</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.07186896407150578</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.06817589884248458</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.05174979073450849</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.04988616360304768</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.02963351045261616</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.06612868039096352</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.01345076335271437</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.0708385214028998</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.04140912458191592</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.05332678818505669</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.07720575894379304</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.001915008077308435</v>
+      </c>
+      <c r="C67" t="n">
+        <v>17.43333333333333</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.199199867326802</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0001263260451416646</v>
+      </c>
+      <c r="F67" t="n">
+        <v>60</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.047619047619047</v>
+      </c>
+      <c r="H67" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0002274825942893952</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.00015448377020544</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0002256231968742528</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0001586388367423736</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.000148145974504704</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0002379502677639834</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0001369317751036201</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0002570236348016066</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.000120616174429632</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.000251834176226304</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.687293058342147</v>
+      </c>
+      <c r="C68" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7159467030098948</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" t="n">
+        <v>17.52380952380953</v>
+      </c>
+      <c r="H68" t="n">
+        <v>298.8888888888889</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.730687262424192</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.6143623038336</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.616668776335739</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.9509227504348321</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.1415099295945216</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.0832202672053536</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.625912555512896</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.119148229101888</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.4270742273516544</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.6480326201844097</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.215288861766935</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.5371273118603952</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1034027155966696</v>
+      </c>
+      <c r="C69" t="n">
+        <v>23.50424140750759</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.925139745463682</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.03954279535580169</v>
+      </c>
+      <c r="F69" t="n">
+        <v>79.71928682170542</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.136794555473539</v>
+      </c>
+      <c r="H69" t="n">
+        <v>210.3953140705535</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.03893786396092599</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.04121893252359107</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.04174186946419625</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.03358656426974732</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.01122718990718738</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.009008081446333506</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.04054212415348189</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.01697501537662665</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.02698553774788798</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.03207557029730093</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.01283178475659118</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.0306926496099375</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.000361196103143232</v>
+      </c>
+      <c r="C70" t="n">
+        <v>17.46666666666667</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.187573409719168</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.741578029324137e-05</v>
+      </c>
+      <c r="F70" t="n">
+        <v>46.66699999999999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.578947368421053</v>
+      </c>
+      <c r="H70" t="n">
+        <v>135.5263157894737</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>8.678960818161809e-05</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.190511816052205</v>
+      </c>
+      <c r="C71" t="n">
+        <v>23.82608695652174</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.711174603174603</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.2684316533712691</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>194.9310344827586</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.27323006189616</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.131951974460544</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.3686776602484007</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.5864312817203268</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.1781596312771968</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.3890870643703679</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.135723778427664</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.249224495643648</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.7136660868382081</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.09134901445773601</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.160892924359608</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.1418825618700258</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.09354172807308157</v>
+      </c>
+      <c r="C72" t="n">
+        <v>18.62062600856182</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.716488009205838</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.01492519329775589</v>
+      </c>
+      <c r="F72" t="n">
+        <v>97.8389010989011</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6.883890588886882</v>
+      </c>
+      <c r="H72" t="n">
+        <v>165.8923145275703</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.02146616935997668</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.02053566601094671</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.02918608092531313</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.02552072132272042</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.02012030923091435</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.01821067126397484</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.01130575867068585</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.01205905307602928</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.04391484144870025</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.01049761261839571</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.0135386916007288</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.01800791378076333</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0005718870339336001</v>
+      </c>
+      <c r="C73" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.272698200151155</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6.449083996984539e-05</v>
+      </c>
+      <c r="F73" t="n">
+        <v>76.667</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.692307692307693</v>
+      </c>
+      <c r="H73" t="n">
+        <v>135.4827586206897</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0001285430791994496</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0001342191344667264</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0001154196479694182</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0001245551610590784</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0001285868600250139</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0001129583929699008</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.000125550101781216</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4.374477076677121e-05</v>
+      </c>
+      <c r="S73" t="n">
+        <v>6.6118704137136e-05</v>
+      </c>
+      <c r="T73" t="n">
+        <v>7.9583607411264e-05</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B74" t="n">
+        <v>1.096861434837595</v>
+      </c>
+      <c r="C74" t="n">
+        <v>40.41666666666666</v>
+      </c>
+      <c r="D74" t="n">
+        <v>11.15532879818594</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.3712587124874193</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" t="n">
+        <v>10.56666666666667</v>
+      </c>
+      <c r="H74" t="n">
+        <v>179.5833333333333</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.553163648812494</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.4377690987281049</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1980695135617062</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.4064373626191204</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.034741372756608</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1241392432162179</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.0006173525628345599</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2.5444385680896e-05</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.0055781922454272</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0158171109064416</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.2626047153653872</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.5029153508678215</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
         <v>0.1582225952875731</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C75" t="n">
         <v>20.25962915596536</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D75" t="n">
         <v>4.861681363261397</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E75" t="n">
         <v>0.05000482407963074</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F75" t="n">
         <v>91.46964285714286</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G75" t="n">
         <v>5.071209746055805</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H75" t="n">
         <v>115.35994456875</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I75" t="n">
         <v>0.07261011234970216</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J75" t="n">
         <v>0.05802890694649942</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K75" t="n">
         <v>0.0309767974058178</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L75" t="n">
         <v>0.04612949949177913</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M75" t="n">
         <v>0.007481904020304846</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N75" t="n">
         <v>0.02803541070892767</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O75" t="n">
         <v>2.204830581552e-05</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P75" t="n">
         <v>1.799980580448e-06</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q75" t="n">
         <v>0.000317775212377344</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R75" t="n">
         <v>0.003260031637232062</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S75" t="n">
         <v>0.03732869673727739</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T75" t="n">
         <v>0.06960568835660617</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0003697649427349441</v>
+      </c>
+      <c r="C76" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.609328079328079</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.867906626968608e-05</v>
+      </c>
+      <c r="F76" t="n">
+        <v>41.379</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.619047619047619</v>
+      </c>
+      <c r="H76" t="n">
+        <v>104.7333333333333</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0001002154983363692</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7.82472426170993e-05</v>
+      </c>
+      <c r="K76" t="n">
+        <v>6.1176039015744e-05</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.9205618037984e-05</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>7.58805405666336e-05</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.0001399107588511156</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
   </sheetData>
